--- a/data/trans_dic/iP31A_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R2-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,11; 66,15</t>
+          <t>19,8; 67,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,55; 55,39</t>
+          <t>20,04; 57,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,57; 54,16</t>
+          <t>24,76; 53,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,09; 75,17</t>
+          <t>52,73; 75,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,96; 78,48</t>
+          <t>62,82; 78,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,09; 74,83</t>
+          <t>61,8; 74,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,03; 75,49</t>
+          <t>64,1; 75,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,62; 75,81</t>
+          <t>64,53; 75,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,7; 74,25</t>
+          <t>66,21; 74,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,88; 59,3</t>
+          <t>43,2; 58,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,51; 58,23</t>
+          <t>41,15; 58,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,39; 56,25</t>
+          <t>45,23; 56,3</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,61; 73,2</t>
+          <t>60,19; 73,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,1; 68,98</t>
+          <t>56,45; 69,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,79; 69,66</t>
+          <t>61,47; 69,6</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>60,33; 67,32</t>
+          <t>60,36; 67,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,9; 66,03</t>
+          <t>59,3; 66,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>60,54; 65,59</t>
+          <t>60,73; 65,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP31A_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP31A_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>66,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>59,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>62,65%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,8; 67,41</t>
+          <t>58,98; 73,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,04; 57,19</t>
+          <t>43,6; 69,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,76; 53,29</t>
+          <t>53,42; 68,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>66,53%</t>
+          <t>68,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>68,4%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,73; 75,05</t>
+          <t>59,76; 74,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,82; 78,46</t>
+          <t>61,65; 73,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,8; 74,95</t>
+          <t>63,66; 72,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>70,25%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>50,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70,41%</t>
+          <t>47,9%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,1; 75,34</t>
+          <t>28,28; 55,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,53; 75,81</t>
+          <t>43,0; 58,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>66,21; 74,07</t>
+          <t>37,43; 54,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>62,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>66,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>64,51%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>43,2; 58,04</t>
+          <t>55,85; 68,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,15; 58,25</t>
+          <t>59,78; 72,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,23; 56,3</t>
+          <t>59,82; 68,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>67,19%</t>
+          <t>59,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>63,2%</t>
+          <t>61,93%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>60,97%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,19; 73,26</t>
+          <t>51,13; 63,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,45; 69,32</t>
+          <t>57,81; 65,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>61,47; 69,6</t>
+          <t>56,73; 63,7</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>63,84%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>62,75%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>63,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>60,36; 67,32</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>59,3; 66,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>60,73; 65,81</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
